--- a/public/raw_data.xlsx
+++ b/public/raw_data.xlsx
@@ -20,8 +20,162 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Robert d'Apice</author>
+  </authors>
+  <commentList>
+    <comment ref="B121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robert d'Apice:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+full name = Comcare, the Safety, Rehabilitation and Compensation Commission, and the Seafarer's Safety, Rehabilitation and Compensation Authority</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B122" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robert d'Apice:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+full name = Comcare, the Safety, Rehabilitation and Compensation Commission, and the Seafarer's Safety, Rehabilitation and Compensation Authority</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B123" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robert d'Apice:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+full name = Comcare, the Safety, Rehabilitation and Compensation Commission, and the Seafarer's Safety, Rehabilitation and Compensation Authority</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B124" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robert d'Apice:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+full name = Comcare, the Safety, Rehabilitation and Compensation Commission, and the Seafarer's Safety, Rehabilitation and Compensation Authority</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B125" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robert d'Apice:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+full name = Comcare, the Safety, Rehabilitation and Compensation Commission, and the Seafarer's Safety, Rehabilitation and Compensation Authority</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B126" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Robert d'Apice:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+full name = Comcare, the Safety, Rehabilitation and Compensation Commission, and the Seafarer's Safety, Rehabilitation and Compensation Authority</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="220">
   <si>
     <t>-</t>
   </si>
@@ -152,15 +306,6 @@
     <t>All other functions</t>
   </si>
   <si>
-    <t>Portfolio</t>
-  </si>
-  <si>
-    <t>EDUCATION, EMPLOYMENT AND WORKPLACE RELATIONS PORTFOLIO OVERVIEW</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
     <t>Safe Work Australia</t>
   </si>
   <si>
@@ -185,39 +330,6 @@
     <t>Department of Education, Employment and Workplace Relations</t>
   </si>
   <si>
-    <t>Comcare, the Safety, Rehabilitation and Compensation Commission, and the Seafarer's Safety, Rehabilitation and Compensation Authority</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Outcome</t>
-  </si>
-  <si>
-    <t>Program 1.1: Support for the Child Care System</t>
-  </si>
-  <si>
-    <t>value12-13</t>
-  </si>
-  <si>
-    <t>value11-12</t>
-  </si>
-  <si>
-    <t>Program 1.2: Child Care Fee Assistance</t>
-  </si>
-  <si>
-    <t>Program 1.3: Early Childhood Education</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Program name</t>
-  </si>
-  <si>
-    <t>Expense name</t>
-  </si>
-  <si>
     <t>Jobs Education and Training Child Care Fee Assistance  (JETCCFA)</t>
   </si>
   <si>
@@ -236,15 +348,9 @@
     <t>Schools Assistance Act 2008</t>
   </si>
   <si>
-    <t>Program 2.2 Non-Government Schools National Support</t>
-  </si>
-  <si>
     <t>ndigenous Education (Targeted Assistance) Act</t>
   </si>
   <si>
-    <t>Program 2.3 Schools Support</t>
-  </si>
-  <si>
     <t>Teach Next</t>
   </si>
   <si>
@@ -296,24 +402,15 @@
     <t>Indigenous Education</t>
   </si>
   <si>
-    <t>Program 2.4 Trade Training</t>
-  </si>
-  <si>
     <t>Trade Training Centres (Non-Government)</t>
   </si>
   <si>
-    <t>Program 2.5 Digital Education Revolution</t>
-  </si>
-  <si>
     <t>Digtal Education Revolution Project Pool</t>
   </si>
   <si>
     <t>Digital Education Revolution (Non-Government)</t>
   </si>
   <si>
-    <t>Program 2.6 National Action Plan on Literacy and Numeracy</t>
-  </si>
-  <si>
     <t>National Action Plan on Literacy and Numeracy</t>
   </si>
   <si>
@@ -338,9 +435,6 @@
     <t>Students w ith Disabilities (Non-Government)</t>
   </si>
   <si>
-    <t>Program 2.11 Youth Support</t>
-  </si>
-  <si>
     <t>Youth Attainment and Transitions National Partnership</t>
   </si>
   <si>
@@ -350,9 +444,6 @@
     <t>National Youth Affairs Research Component</t>
   </si>
   <si>
-    <t>Program 2.12 Student Assistance</t>
-  </si>
-  <si>
     <t>ABSTUDY - Secondary</t>
   </si>
   <si>
@@ -365,33 +456,21 @@
     <t>Superannuation payments for ATAS</t>
   </si>
   <si>
-    <t>Program 2.13 Empowering Local Schools</t>
-  </si>
-  <si>
     <t>Empowering Local Schools (Non-Government)</t>
   </si>
   <si>
     <t>Empowering Local Schools</t>
   </si>
   <si>
-    <t>Program 2.14 Rewards for School Improvement</t>
-  </si>
-  <si>
     <t>Rew ards for School Improvement</t>
   </si>
   <si>
     <t>Rew ards for School Improvement (Non- Government)</t>
   </si>
   <si>
-    <t>Program 2.15 National Rewards for Great Teachers</t>
-  </si>
-  <si>
     <t>National Rew ards for Great Teachers</t>
   </si>
   <si>
-    <t>Program 3.1 Employment Services</t>
-  </si>
-  <si>
     <t>Job Services Australia</t>
   </si>
   <si>
@@ -416,33 +495,21 @@
     <t>Jobs Fund</t>
   </si>
   <si>
-    <t>Program 3.2 Indigenous Employment</t>
-  </si>
-  <si>
     <t>Indigenous Employment Program</t>
   </si>
   <si>
-    <t>Program 3.3 Disability Employment Services</t>
-  </si>
-  <si>
     <t>Disability Employment Services</t>
   </si>
   <si>
     <t>Employment Assistance and Other Services</t>
   </si>
   <si>
-    <t>Program 3.4 Remote Jobs and Communities Program</t>
-  </si>
-  <si>
     <t>Remote Participation and Employment Services</t>
   </si>
   <si>
     <t>Remote Youth Leadership and Development Corp</t>
   </si>
   <si>
-    <t>Program 3.5 Working Age Payments</t>
-  </si>
-  <si>
     <t>Compensation and Debt Relief</t>
   </si>
   <si>
@@ -479,20 +546,302 @@
     <t>Mobility Allow ance</t>
   </si>
   <si>
-    <t>Program 4.1 Employee Assistance</t>
-  </si>
-  <si>
     <t>General Employee Entitlements and Redundancy Scheme</t>
   </si>
   <si>
     <t>Coal Mining Industry Commission</t>
+  </si>
+  <si>
+    <t>Coal Mining Industry (Long Service Leave) Administration Act 1992 financing arrangementsÑunder this Act the cost of portable long service leave entitlements is managed through a central fund administered by the Coal Mining Industry (Long Service Leave Funding) Corporation. Monthly levy collection transfers are made from the consolidated revenue fund to the central fund.</t>
+  </si>
+  <si>
+    <t>General Employee Entitlements and Redundancy Scheme (GEERS)Ña safety net payment scheme established to assist employees who have lost their employment due to the liquidation or bankruptcy of their employer and who are owed certain employee entitlements.</t>
+  </si>
+  <si>
+    <t>Protected Action Ballots Scheme</t>
+  </si>
+  <si>
+    <t>Home Workers Code of Practice Program</t>
+  </si>
+  <si>
+    <t>International Labour Organisation Subscription</t>
+  </si>
+  <si>
+    <t>Social and Community Workers Education and Information Program</t>
+  </si>
+  <si>
+    <t>Comcare</t>
+  </si>
+  <si>
+    <t>Asbestos Compensation Payments</t>
+  </si>
+  <si>
+    <t>Workers Compensation Payments</t>
+  </si>
+  <si>
+    <t>Tertiary Education Quality and Standards Agency</t>
+  </si>
+  <si>
+    <t>Indigenous Higher Education Advisory Council</t>
+  </si>
+  <si>
+    <t>Higher Education Special Projects</t>
+  </si>
+  <si>
+    <t>Commonw ealth Grants Scheme</t>
+  </si>
+  <si>
+    <t>Higher Education Participation and Partnerships Program</t>
+  </si>
+  <si>
+    <t>Disability Support Program</t>
+  </si>
+  <si>
+    <t>Indigenous Support Program</t>
+  </si>
+  <si>
+    <t>Diversity and Structural Adjustment</t>
+  </si>
+  <si>
+    <t>Quality Initiatives</t>
+  </si>
+  <si>
+    <t>Open Learning Initiatives</t>
+  </si>
+  <si>
+    <t>National Institutes</t>
+  </si>
+  <si>
+    <t>Commonw ealth Scholarships</t>
+  </si>
+  <si>
+    <t>Higher Education Special Projects (Capital Development Pool)</t>
+  </si>
+  <si>
+    <t>Education Investment Fund</t>
+  </si>
+  <si>
+    <t>Higher Education Loan Program</t>
+  </si>
+  <si>
+    <t>YouthAllowanceCommunication</t>
+  </si>
+  <si>
+    <t>Austudy</t>
+  </si>
+  <si>
+    <t>National Centre for Vocational Education Research</t>
+  </si>
+  <si>
+    <t>Australian Apprenticeship Centres</t>
+  </si>
+  <si>
+    <t>Support for Australian Apprenticeships</t>
+  </si>
+  <si>
+    <t>Australian Apprenticeship Workforce Skills Development</t>
+  </si>
+  <si>
+    <t>Australian Apprenticeship Access Program</t>
+  </si>
+  <si>
+    <t>Workplace English Language and Literacy</t>
+  </si>
+  <si>
+    <t>Language, Literacy and Numeracy</t>
+  </si>
+  <si>
+    <t>Critical Skills Investment Fund</t>
+  </si>
+  <si>
+    <t>National Foundation Skills Strategy</t>
+  </si>
+  <si>
+    <t>Trade Apprentice Mentoring Initiative</t>
+  </si>
+  <si>
+    <t>Support for Competency Based Progression</t>
+  </si>
+  <si>
+    <t>The Right Trade for You</t>
+  </si>
+  <si>
+    <t>More Help for Mature Age Workers</t>
+  </si>
+  <si>
+    <t>National Workforce Development Fund</t>
+  </si>
+  <si>
+    <t>International Education and Training</t>
+  </si>
+  <si>
+    <t>Assessment Subsidy for Overseas Trained Professionals</t>
+  </si>
+  <si>
+    <t>Education Services for Overseas Student Assurance Fund</t>
+  </si>
+  <si>
+    <t>Promoting worker health, wellbeing and resilience in federal workplaces</t>
+  </si>
+  <si>
+    <t>Supporting injured federal workers</t>
+  </si>
+  <si>
+    <t>SRC Act Regulation</t>
+  </si>
+  <si>
+    <t>Management of Premium Claims</t>
+  </si>
+  <si>
+    <t>Management of Pre Premium Grants from Portfolio Agencies</t>
+  </si>
+  <si>
+    <t>Provide support to the Seafarers Safety Rehabilitation and Compensation Authority</t>
+  </si>
+  <si>
+    <t>Payment of claims is funded from premium revenue paid to Comcare</t>
+  </si>
+  <si>
+    <t>Access to compensation for people with asbestos-related diseases where the Commonwealth has a liability through management of claims.</t>
+  </si>
+  <si>
+    <t>National Curriculum</t>
+  </si>
+  <si>
+    <t>National Data Collection and Reporting</t>
+  </si>
+  <si>
+    <t>National Assessment</t>
+  </si>
+  <si>
+    <t>Enforce workplace relations laws in the building and construction industry and ensure compliance with those laws by all participants in the building and construction industry through the provision of education, assistance and advice.</t>
+  </si>
+  <si>
+    <t>Education, Employment &amp; Workplace Relations</t>
+  </si>
+  <si>
+    <t>Early Childhood learning &amp; Care</t>
+  </si>
+  <si>
+    <t>Teaching &amp; Learning for school students</t>
+  </si>
+  <si>
+    <t>Employment &amp; Training services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safer, fairer and more productive workplaces </t>
+  </si>
+  <si>
+    <t>Tertiary education</t>
+  </si>
+  <si>
+    <t>Support for the Child Care System</t>
+  </si>
+  <si>
+    <t>Child Care Fee Assistance</t>
+  </si>
+  <si>
+    <t>Early Childhood Education</t>
+  </si>
+  <si>
+    <t>Non-Government Schools National Support</t>
+  </si>
+  <si>
+    <t>Schools Support</t>
+  </si>
+  <si>
+    <t>Digital Education Revolution</t>
+  </si>
+  <si>
+    <t>Youth Support</t>
+  </si>
+  <si>
+    <t>Student Assistance</t>
+  </si>
+  <si>
+    <t>Rewards for School Improvement</t>
+  </si>
+  <si>
+    <t>National Rewards for Great Teachers</t>
+  </si>
+  <si>
+    <t>Employment Services</t>
+  </si>
+  <si>
+    <t>Indigenous Employment</t>
+  </si>
+  <si>
+    <t>Remote Jobs and Communities Program</t>
+  </si>
+  <si>
+    <t>Working Age Payments</t>
+  </si>
+  <si>
+    <t>Employee Assistance</t>
+  </si>
+  <si>
+    <t>Workplace Assistance</t>
+  </si>
+  <si>
+    <t>Higher Education Support</t>
+  </si>
+  <si>
+    <t>Tertiary Student Assistance</t>
+  </si>
+  <si>
+    <t>VET National Support</t>
+  </si>
+  <si>
+    <t>International Education Support</t>
+  </si>
+  <si>
+    <t>Youth Allowance</t>
+  </si>
+  <si>
+    <t>Fares Allowance</t>
+  </si>
+  <si>
+    <t>Families, Housing, Community Services and indigenous affairs</t>
+  </si>
+  <si>
+    <t>Industry Innovation, Science, Research &amp; Tertiary Education</t>
+  </si>
+  <si>
+    <t>Regional Australia, Local Government, Arts &amp; Sport</t>
+  </si>
+  <si>
+    <t>Sustainability, Environment, Water, Population &amp; Communities</t>
+  </si>
+  <si>
+    <t>Cat_1</t>
+  </si>
+  <si>
+    <t>Cat_2</t>
+  </si>
+  <si>
+    <t>Cat_3</t>
+  </si>
+  <si>
+    <t>Cat_4</t>
+  </si>
+  <si>
+    <t>Cat_5</t>
+  </si>
+  <si>
+    <t>value12_13</t>
+  </si>
+  <si>
+    <t>value11_12</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -535,13 +884,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -562,7 +930,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -634,8 +1002,164 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -646,8 +1170,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="227">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -683,6 +1208,84 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -718,6 +1321,84 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1050,7 +1731,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A24"/>
+      <selection activeCell="A5" sqref="A5:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2044,1345 +2725,3218 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="68.5" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
-    <col min="9" max="9" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1">
+        <v>326526</v>
+      </c>
+      <c r="G2" s="1">
+        <v>345312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1">
+        <v>88075</v>
+      </c>
+      <c r="G3" s="1">
+        <v>81919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2342852</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2444197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1835663</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1993141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="1">
-        <v>326526</v>
-      </c>
-      <c r="H2" s="1">
-        <v>345312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="1">
-        <v>88075</v>
-      </c>
-      <c r="H3" s="1">
-        <v>81919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2342852</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2444197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1835663</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1993141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
+      <c r="F6" s="1">
+        <v>3000</v>
       </c>
       <c r="G6" s="1">
         <v>3000</v>
       </c>
-      <c r="H6" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7587740</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8183019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" t="s">
+        <v>189</v>
       </c>
       <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1">
+        <v>150941</v>
+      </c>
+      <c r="G8" s="1">
+        <v>130047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4300</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1">
+        <v>14894</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13">
+        <v>850</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4635</v>
+      </c>
+      <c r="G14">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4035</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4076</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="1">
+        <v>74000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5354</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="1">
+        <v>50539</v>
+      </c>
+      <c r="G18" s="1">
+        <v>58498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2875</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1911</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7587740</v>
-      </c>
-      <c r="H8" s="1">
-        <v>8183019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4793</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="1">
-        <v>150941</v>
-      </c>
-      <c r="H9" s="1">
-        <v>130047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4300</v>
-      </c>
-      <c r="H10" s="1">
-        <v>5224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="1">
-        <v>14894</v>
-      </c>
-      <c r="H12" s="1">
-        <v>10238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14">
-        <v>850</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4635</v>
-      </c>
-      <c r="H15">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="1">
-        <v>4035</v>
-      </c>
-      <c r="H16" s="1">
-        <v>4076</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="1">
-        <v>74000</v>
-      </c>
-      <c r="H17" s="1">
-        <v>74000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="1">
-        <v>5354</v>
-      </c>
-      <c r="H18" s="1">
-        <v>5434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="1">
-        <v>50539</v>
-      </c>
-      <c r="H19" s="1">
-        <v>58498</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2875</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1911</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>87</v>
+      <c r="F23" s="1">
+        <v>11700</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="1">
-        <v>4793</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="1:22">
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" t="s">
+        <v>190</v>
       </c>
       <c r="E24" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="1">
+        <v>48790</v>
+      </c>
+      <c r="G25" s="1">
+        <v>30821</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <v>55025</v>
+      </c>
+      <c r="G26" s="1">
+        <v>84249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9242</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="1">
+        <v>74000</v>
+      </c>
+      <c r="G28" s="1">
+        <v>74000</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
+        <v>6800</v>
+      </c>
+      <c r="G29" s="1">
+        <v>162338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="1">
+        <v>93419</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="1">
+        <v>15640</v>
+      </c>
+      <c r="G31" s="1">
+        <v>13401</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32">
+        <v>554</v>
+      </c>
+      <c r="G32">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="1">
+        <v>17066</v>
+      </c>
+      <c r="G33" s="1">
+        <v>17066</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="1">
+        <v>113402</v>
+      </c>
+      <c r="G34" s="1">
+        <v>114360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="1">
+        <v>9669</v>
+      </c>
+      <c r="G35" s="1">
+        <v>11419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="1">
-        <v>11700</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" t="s">
+      <c r="F36">
+        <v>240</v>
+      </c>
+      <c r="G36">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="1">
+        <v>141235</v>
+      </c>
+      <c r="G37" s="1">
+        <v>133511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="1">
+        <v>78162</v>
+      </c>
+      <c r="G38" s="1">
+        <v>83261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="1">
+        <v>57601</v>
+      </c>
+      <c r="G39" s="1">
+        <v>63070</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1250</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="1">
+        <v>18613</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5785</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5471</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="1">
+        <v>8717</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1490135</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1544929</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="1">
+        <v>38800</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="1">
+        <v>18750</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51">
+        <v>442</v>
+      </c>
+      <c r="G51">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5102</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="1">
+        <v>157713</v>
+      </c>
+      <c r="G54" s="1">
+        <v>172576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="1">
+        <v>824310</v>
+      </c>
+      <c r="G55" s="1">
+        <v>817393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="1">
+        <v>37398</v>
+      </c>
+      <c r="G56" s="1">
+        <v>37963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59">
+        <v>198</v>
+      </c>
+      <c r="G59">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="1">
+        <v>139686</v>
+      </c>
+      <c r="G60" s="1">
+        <v>143501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="1">
+        <v>6590474</v>
+      </c>
+      <c r="G61" s="1">
+        <v>7766968</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4737198</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4247628</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1062116</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1017422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" s="1">
+        <v>17704</v>
+      </c>
+      <c r="G64" s="1">
+        <v>10995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" s="1">
+        <v>157831</v>
+      </c>
+      <c r="G65" s="1">
+        <v>99661</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" s="1">
+        <v>81095</v>
+      </c>
+      <c r="G66" s="1">
+        <v>73112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="1">
+        <v>91288</v>
+      </c>
+      <c r="G67" s="1">
+        <v>92485</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" s="1">
+        <v>20400</v>
+      </c>
+      <c r="G68" s="1">
+        <v>19176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" s="1">
+        <v>401691</v>
+      </c>
+      <c r="G69" s="1">
+        <v>367536</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="1">
+        <v>751484</v>
+      </c>
+      <c r="G70" s="1">
+        <v>922677</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" s="1">
+        <v>199386</v>
+      </c>
+      <c r="G71" s="1">
+        <v>202975</v>
+      </c>
+      <c r="H71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="1">
+        <v>152423</v>
+      </c>
+      <c r="G72" s="1">
+        <v>152423</v>
+      </c>
+      <c r="H72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" t="s">
+        <v>201</v>
+      </c>
+      <c r="E73" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1600</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" t="s">
+        <v>201</v>
+      </c>
+      <c r="E74" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" s="1">
+        <v>250</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" t="s">
+        <v>201</v>
+      </c>
+      <c r="E75" t="s">
+        <v>129</v>
+      </c>
+      <c r="F75" s="1">
+        <v>8903</v>
+      </c>
+      <c r="G75" s="1">
+        <v>8262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" t="s">
+        <v>201</v>
+      </c>
+      <c r="E76" t="s">
+        <v>130</v>
+      </c>
+      <c r="F76">
+        <v>400</v>
+      </c>
+      <c r="G76">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" t="s">
+        <v>184</v>
+      </c>
+      <c r="D77" t="s">
+        <v>133</v>
+      </c>
+      <c r="E77" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="1">
+        <v>14403</v>
+      </c>
+      <c r="G77" s="1">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" t="s">
+        <v>133</v>
+      </c>
+      <c r="E78" t="s">
+        <v>132</v>
+      </c>
+      <c r="F78" s="1">
+        <v>23270</v>
+      </c>
+      <c r="G78" s="1">
+        <v>27890</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" t="s">
+        <v>133</v>
+      </c>
+      <c r="E79" t="s">
+        <v>133</v>
+      </c>
+      <c r="F79" s="1">
+        <v>34790</v>
+      </c>
+      <c r="G79" s="1">
+        <v>39661</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1125</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" t="s">
+        <v>202</v>
+      </c>
+      <c r="E81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F81">
+        <v>283</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E82" t="s">
+        <v>136</v>
+      </c>
+      <c r="F82">
+        <v>82</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" t="s">
+        <v>202</v>
+      </c>
+      <c r="E83" t="s">
+        <v>137</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2576886</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84" s="1">
+        <v>49007</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="1">
+        <v>6008</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" t="s">
+        <v>202</v>
+      </c>
+      <c r="E86" t="s">
+        <v>140</v>
+      </c>
+      <c r="F86" s="1">
+        <v>18321</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" t="s">
+        <v>202</v>
+      </c>
+      <c r="E87" t="s">
+        <v>141</v>
+      </c>
+      <c r="F87" s="1">
+        <v>23602</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" t="s">
+        <v>142</v>
+      </c>
+      <c r="F88" s="1">
+        <v>13078</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" t="s">
+        <v>202</v>
+      </c>
+      <c r="E89" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89">
+        <v>245</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" t="s">
+        <v>202</v>
+      </c>
+      <c r="E90" t="s">
+        <v>144</v>
+      </c>
+      <c r="F90" s="1">
+        <v>91404</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" t="s">
+        <v>145</v>
+      </c>
+      <c r="F91" s="1">
+        <v>7017</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" t="s">
+        <v>202</v>
+      </c>
+      <c r="E92" t="s">
+        <v>146</v>
+      </c>
+      <c r="F92" s="1">
+        <v>24947</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" t="s">
+        <v>202</v>
+      </c>
+      <c r="E93" t="s">
+        <v>147</v>
+      </c>
+      <c r="F93" s="1">
+        <v>91141</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" t="s">
+        <v>148</v>
+      </c>
+      <c r="E94" t="s">
+        <v>148</v>
+      </c>
+      <c r="F94" s="1">
+        <v>756831</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" t="s">
+        <v>185</v>
+      </c>
+      <c r="D95" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95" t="s">
+        <v>149</v>
+      </c>
+      <c r="F95">
+        <v>700</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" t="s">
+        <v>150</v>
+      </c>
+      <c r="F96" s="1">
+        <v>248936</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97" t="s">
+        <v>203</v>
+      </c>
+      <c r="E97" t="s">
+        <v>206</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1338524</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98" t="s">
+        <v>207</v>
+      </c>
+      <c r="F98">
+        <v>379</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>185</v>
+      </c>
+      <c r="D99" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" t="s">
+        <v>151</v>
+      </c>
+      <c r="F99">
+        <v>513</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>180</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" t="s">
+        <v>185</v>
+      </c>
+      <c r="D100" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" t="s">
+        <v>152</v>
+      </c>
+      <c r="F100" s="1">
+        <v>116633</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" t="s">
+        <v>204</v>
+      </c>
+      <c r="E101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F101" s="1">
+        <v>602910</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" t="s">
+        <v>204</v>
+      </c>
+      <c r="E102" t="s">
+        <v>154</v>
+      </c>
+      <c r="F102" s="1">
+        <v>117497</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" t="s">
+        <v>204</v>
+      </c>
+      <c r="E103" t="s">
+        <v>155</v>
+      </c>
+      <c r="F103" s="1">
+        <v>38009</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" t="s">
+        <v>185</v>
+      </c>
+      <c r="D104" t="s">
+        <v>204</v>
+      </c>
+      <c r="E104" t="s">
+        <v>156</v>
+      </c>
+      <c r="F104" s="1">
+        <v>9319</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" t="s">
+        <v>185</v>
+      </c>
+      <c r="D105" t="s">
+        <v>204</v>
+      </c>
+      <c r="E105" t="s">
+        <v>157</v>
+      </c>
+      <c r="F105" s="1">
+        <v>47115</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" t="s">
+        <v>185</v>
+      </c>
+      <c r="D106" t="s">
+        <v>204</v>
+      </c>
+      <c r="E106" t="s">
+        <v>158</v>
+      </c>
+      <c r="F106" s="1">
+        <v>10973</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" t="s">
+        <v>185</v>
+      </c>
+      <c r="D107" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" t="s">
+        <v>159</v>
+      </c>
+      <c r="F107">
+        <v>836</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" t="s">
+        <v>185</v>
+      </c>
+      <c r="D108" t="s">
+        <v>204</v>
+      </c>
+      <c r="E108" t="s">
+        <v>160</v>
+      </c>
+      <c r="F108" s="1">
+        <v>4708</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" t="s">
+        <v>185</v>
+      </c>
+      <c r="D109" t="s">
+        <v>204</v>
+      </c>
+      <c r="E109" t="s">
+        <v>161</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2920</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110" t="s">
+        <v>204</v>
+      </c>
+      <c r="E110" t="s">
+        <v>162</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1152</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" t="s">
+        <v>185</v>
+      </c>
+      <c r="D111" t="s">
+        <v>204</v>
+      </c>
+      <c r="E111" t="s">
+        <v>163</v>
+      </c>
+      <c r="F111" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>180</v>
+      </c>
+      <c r="B112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112" t="s">
+        <v>185</v>
+      </c>
+      <c r="D112" t="s">
+        <v>204</v>
+      </c>
+      <c r="E112" t="s">
+        <v>164</v>
+      </c>
+      <c r="F112" s="1">
+        <v>7296</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" t="s">
+        <v>185</v>
+      </c>
+      <c r="D113" t="s">
+        <v>204</v>
+      </c>
+      <c r="E113" t="s">
+        <v>147</v>
+      </c>
+      <c r="F113" s="1">
+        <v>16190</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114" t="s">
+        <v>205</v>
+      </c>
+      <c r="E114" t="s">
+        <v>165</v>
+      </c>
+      <c r="F114" s="1">
+        <v>23383</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>180</v>
+      </c>
+      <c r="B115" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" t="s">
+        <v>185</v>
+      </c>
+      <c r="D115" t="s">
+        <v>205</v>
+      </c>
+      <c r="E115" t="s">
+        <v>166</v>
+      </c>
+      <c r="F115">
+        <v>419</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>180</v>
+      </c>
+      <c r="B116" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" t="s">
+        <v>185</v>
+      </c>
+      <c r="D116" t="s">
+        <v>205</v>
+      </c>
+      <c r="E116" t="s">
+        <v>167</v>
+      </c>
+      <c r="F116" s="1">
+        <v>2325</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>180</v>
+      </c>
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" t="s">
+        <v>176</v>
+      </c>
+      <c r="F117" s="1">
+        <v>12203</v>
+      </c>
+      <c r="G117" s="1">
+        <v>12503</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" t="s">
+        <v>177</v>
+      </c>
+      <c r="F118" s="1">
+        <v>5004</v>
+      </c>
+      <c r="G118" s="1">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>180</v>
+      </c>
+      <c r="B119" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" t="s">
+        <v>178</v>
+      </c>
+      <c r="F119" s="1">
+        <v>12044</v>
+      </c>
+      <c r="G119" s="1">
+        <v>11987</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" s="1">
+        <v>18896</v>
+      </c>
+      <c r="G120" s="1">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>180</v>
+      </c>
+      <c r="B121" t="s">
+        <v>131</v>
+      </c>
+      <c r="D121" t="s">
+        <v>168</v>
+      </c>
+      <c r="F121" s="1">
+        <v>32406</v>
+      </c>
+      <c r="G121" s="1">
+        <v>23914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" t="s">
+        <v>131</v>
+      </c>
+      <c r="D122" t="s">
+        <v>169</v>
+      </c>
+      <c r="E122" t="s">
+        <v>170</v>
+      </c>
+      <c r="F122" s="1">
+        <v>11677</v>
+      </c>
+      <c r="G122" s="1">
+        <v>10383</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" t="s">
+        <v>169</v>
+      </c>
+      <c r="E123" t="s">
+        <v>171</v>
+      </c>
+      <c r="F123" s="1">
+        <v>723908</v>
+      </c>
+      <c r="G123" s="1">
+        <v>353820</v>
+      </c>
+      <c r="H123" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>180</v>
+      </c>
+      <c r="B124" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124" t="s">
+        <v>169</v>
+      </c>
+      <c r="E124" t="s">
+        <v>172</v>
+      </c>
+      <c r="F124" s="1">
+        <v>53361</v>
+      </c>
+      <c r="G124" s="1">
+        <v>18594</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+      <c r="D125" t="s">
+        <v>169</v>
+      </c>
+      <c r="E125" t="s">
+        <v>173</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1039</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>180</v>
+      </c>
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" t="s">
+        <v>175</v>
+      </c>
+      <c r="F126" s="1">
+        <v>45272</v>
+      </c>
+      <c r="G126" s="1">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>180</v>
+      </c>
+      <c r="B127" t="s">
+        <v>47</v>
+      </c>
+      <c r="F127" s="1">
+        <v>79172</v>
+      </c>
+      <c r="G127" s="1">
+        <v>76545</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>180</v>
+      </c>
+      <c r="B128" t="s">
+        <v>46</v>
+      </c>
+      <c r="F128" s="1">
+        <v>143475</v>
+      </c>
+      <c r="G128" s="1">
+        <v>136648</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" t="s">
+        <v>45</v>
+      </c>
+      <c r="F129" s="1">
+        <v>32088</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>180</v>
+      </c>
+      <c r="B130" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="1">
-        <v>48790</v>
-      </c>
-      <c r="H26" s="1">
-        <v>30821</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="1">
-        <v>55025</v>
-      </c>
-      <c r="H27" s="1">
-        <v>84249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="1">
-        <v>9242</v>
-      </c>
-      <c r="H28" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="1">
-        <v>74000</v>
-      </c>
-      <c r="H29" s="1">
-        <v>74000</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="1">
-        <v>6800</v>
-      </c>
-      <c r="H30" s="1">
-        <v>162338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="1">
-        <v>93419</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="1">
-        <v>15640</v>
-      </c>
-      <c r="H32" s="1">
-        <v>13401</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33">
-        <v>554</v>
-      </c>
-      <c r="H33">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="1">
-        <v>17066</v>
-      </c>
-      <c r="H34" s="1">
-        <v>17066</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="1">
-        <v>113402</v>
-      </c>
-      <c r="H35" s="1">
-        <v>114360</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="1">
-        <v>9669</v>
-      </c>
-      <c r="H36" s="1">
-        <v>11419</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37">
-        <v>240</v>
-      </c>
-      <c r="H37">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="1">
-        <v>141235</v>
-      </c>
-      <c r="H38" s="1">
-        <v>133511</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" t="s">
-        <v>111</v>
-      </c>
-      <c r="G39" s="1">
-        <v>78162</v>
-      </c>
-      <c r="H39" s="1">
-        <v>83261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="1">
-        <v>57601</v>
-      </c>
-      <c r="H40" s="1">
-        <v>63070</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="F130" s="1">
+        <v>2917</v>
+      </c>
+      <c r="G130" s="1">
+        <v>31737</v>
+      </c>
+      <c r="H130" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>180</v>
+      </c>
+      <c r="B131" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" s="1">
+        <v>21080</v>
+      </c>
+      <c r="G131" s="1">
+        <v>19402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" s="10">
+        <v>4261074</v>
+      </c>
+      <c r="G132" s="10">
+        <v>2128332</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1250</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" t="s">
-        <v>115</v>
-      </c>
-      <c r="G43" s="1">
-        <v>18613</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" s="1">
-        <v>5785</v>
-      </c>
-      <c r="H44" s="1">
-        <v>5471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="E46" t="s">
-        <v>120</v>
-      </c>
-      <c r="F46" t="s">
-        <v>121</v>
-      </c>
-      <c r="G46" s="1">
-        <v>8717</v>
-      </c>
-      <c r="H46" s="1">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="E47" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1490135</v>
-      </c>
-      <c r="H47" s="1">
-        <v>1544929</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="E48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="1">
-        <v>38800</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="5:8">
-      <c r="E49" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" t="s">
-        <v>129</v>
-      </c>
-      <c r="G49" s="1">
-        <v>18750</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="5:8">
-      <c r="E50" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" t="s">
-        <v>128</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="51" spans="5:8">
-      <c r="E51" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" t="s">
-        <v>127</v>
-      </c>
-      <c r="G51" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H51" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="52" spans="5:8">
-      <c r="E52" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G52">
-        <v>442</v>
-      </c>
-      <c r="H52">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="53" spans="5:8">
-      <c r="E53" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" t="s">
-        <v>125</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="54" spans="5:8">
-      <c r="E54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F54" t="s">
-        <v>124</v>
-      </c>
-      <c r="G54" s="1">
-        <v>5102</v>
-      </c>
-      <c r="H54" s="1">
-        <v>4455</v>
-      </c>
-    </row>
-    <row r="55" spans="5:8">
-      <c r="E55" t="s">
-        <v>131</v>
-      </c>
-      <c r="F55" t="s">
-        <v>132</v>
-      </c>
-      <c r="G55" s="1">
-        <v>157713</v>
-      </c>
-      <c r="H55" s="1">
-        <v>172576</v>
-      </c>
-    </row>
-    <row r="56" spans="5:8">
-      <c r="E56" t="s">
-        <v>133</v>
-      </c>
-      <c r="F56" t="s">
-        <v>134</v>
-      </c>
-      <c r="G56" s="1">
-        <v>824310</v>
-      </c>
-      <c r="H56" s="1">
-        <v>817393</v>
-      </c>
-    </row>
-    <row r="57" spans="5:8">
-      <c r="E57" t="s">
-        <v>133</v>
-      </c>
-      <c r="F57" t="s">
-        <v>135</v>
-      </c>
-      <c r="G57" s="1">
-        <v>37398</v>
-      </c>
-      <c r="H57" s="1">
-        <v>37963</v>
-      </c>
-    </row>
-    <row r="58" spans="5:8">
-      <c r="E58" t="s">
-        <v>136</v>
-      </c>
-      <c r="F58" t="s">
-        <v>137</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="5:8">
-      <c r="E59" t="s">
-        <v>136</v>
-      </c>
-      <c r="F59" t="s">
-        <v>138</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="5:8">
-      <c r="E60" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" t="s">
-        <v>140</v>
-      </c>
-      <c r="G60">
-        <v>198</v>
-      </c>
-      <c r="H60">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="61" spans="5:8">
-      <c r="E61" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" t="s">
-        <v>151</v>
-      </c>
-      <c r="G61" s="1">
-        <v>139686</v>
-      </c>
-      <c r="H61" s="1">
-        <v>143501</v>
-      </c>
-    </row>
-    <row r="62" spans="5:8">
-      <c r="E62" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" t="s">
-        <v>150</v>
-      </c>
-      <c r="G62" s="1">
-        <v>6590474</v>
-      </c>
-      <c r="H62" s="1">
-        <v>7766968</v>
-      </c>
-    </row>
-    <row r="63" spans="5:8">
-      <c r="E63" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" t="s">
-        <v>149</v>
-      </c>
-      <c r="G63" s="1">
-        <v>4737198</v>
-      </c>
-      <c r="H63" s="1">
-        <v>4247628</v>
-      </c>
-    </row>
-    <row r="64" spans="5:8">
-      <c r="E64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F64" t="s">
-        <v>148</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1062116</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1017422</v>
-      </c>
-    </row>
-    <row r="65" spans="5:8">
-      <c r="E65" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" t="s">
-        <v>147</v>
-      </c>
-      <c r="G65" s="1">
-        <v>17704</v>
-      </c>
-      <c r="H65" s="1">
-        <v>10995</v>
-      </c>
-    </row>
-    <row r="66" spans="5:8">
-      <c r="E66" t="s">
-        <v>139</v>
-      </c>
-      <c r="F66" t="s">
-        <v>146</v>
-      </c>
-      <c r="G66" s="1">
-        <v>157831</v>
-      </c>
-      <c r="H66" s="1">
-        <v>99661</v>
-      </c>
-    </row>
-    <row r="67" spans="5:8">
-      <c r="E67" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67" t="s">
-        <v>145</v>
-      </c>
-      <c r="G67" s="1">
-        <v>81095</v>
-      </c>
-      <c r="H67" s="1">
-        <v>73112</v>
-      </c>
-    </row>
-    <row r="68" spans="5:8">
-      <c r="E68" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" t="s">
-        <v>144</v>
-      </c>
-      <c r="G68" s="1">
-        <v>91288</v>
-      </c>
-      <c r="H68" s="1">
-        <v>92485</v>
-      </c>
-    </row>
-    <row r="69" spans="5:8">
-      <c r="E69" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" t="s">
-        <v>143</v>
-      </c>
-      <c r="G69" s="1">
-        <v>20400</v>
-      </c>
-      <c r="H69" s="1">
-        <v>19176</v>
-      </c>
-    </row>
-    <row r="70" spans="5:8">
-      <c r="E70" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>142</v>
-      </c>
-      <c r="G70" s="1">
-        <v>401691</v>
-      </c>
-      <c r="H70" s="1">
-        <v>367536</v>
-      </c>
-    </row>
-    <row r="71" spans="5:8">
-      <c r="E71" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>141</v>
-      </c>
-      <c r="G71" s="1">
-        <v>751484</v>
-      </c>
-      <c r="H71" s="1">
-        <v>922677</v>
-      </c>
-    </row>
-    <row r="72" spans="5:8">
-      <c r="E72" t="s">
-        <v>152</v>
-      </c>
-      <c r="F72" t="s">
-        <v>153</v>
-      </c>
-      <c r="G72" s="1">
-        <v>199386</v>
-      </c>
-      <c r="H72" s="1">
-        <v>202975</v>
-      </c>
-    </row>
-    <row r="73" spans="5:8">
-      <c r="E73" t="s">
-        <v>152</v>
-      </c>
-      <c r="F73" t="s">
-        <v>154</v>
-      </c>
-      <c r="G73" s="1">
-        <v>152423</v>
-      </c>
-      <c r="H73" s="1">
-        <v>152423</v>
+      <c r="F133" s="10">
+        <v>8386119</v>
+      </c>
+      <c r="G133" s="10">
+        <v>7600888</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="10">
+        <v>8607559</v>
+      </c>
+      <c r="G134" s="10">
+        <v>6146031</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="F135" s="10">
+        <v>7279591</v>
+      </c>
+      <c r="G135" s="10">
+        <v>3595884</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="F136" s="10">
+        <v>441516</v>
+      </c>
+      <c r="G136" s="10">
+        <v>5468239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" s="10">
+        <v>994394</v>
+      </c>
+      <c r="G137" s="10">
+        <v>7183523</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" s="10">
+        <v>6163</v>
+      </c>
+      <c r="G138" s="10">
+        <v>104312</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>208</v>
+      </c>
+      <c r="F139" s="10">
+        <v>9810566</v>
+      </c>
+      <c r="G139" s="10">
+        <v>8295804</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="10">
+        <v>1672136</v>
+      </c>
+      <c r="G140" s="10">
+        <v>875924</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="10">
+        <v>7509092</v>
+      </c>
+      <c r="G141" s="10">
+        <v>7785533</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="10">
+        <v>4013573</v>
+      </c>
+      <c r="G142" s="10">
+        <v>4481874</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="10">
+        <v>4038043</v>
+      </c>
+      <c r="G143" s="10">
+        <v>4400705</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" s="10">
+        <v>8147377</v>
+      </c>
+      <c r="G144" s="10">
+        <v>2258993</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>209</v>
+      </c>
+      <c r="F145" s="10">
+        <v>7283110</v>
+      </c>
+      <c r="G145" s="10">
+        <v>2918327</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="10">
+        <v>6595294</v>
+      </c>
+      <c r="G146" s="10">
+        <v>5963848</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" s="10">
+        <v>9606323</v>
+      </c>
+      <c r="G147" s="10">
+        <v>96198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>210</v>
+      </c>
+      <c r="F148" s="10">
+        <v>6090985</v>
+      </c>
+      <c r="G148" s="10">
+        <v>5830594</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="10">
+        <v>418336</v>
+      </c>
+      <c r="G149" s="10">
+        <v>9542569</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>211</v>
+      </c>
+      <c r="F150" s="10">
+        <v>3081263</v>
+      </c>
+      <c r="G150" s="10">
+        <v>6089775</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" s="10">
+        <v>4575821</v>
+      </c>
+      <c r="G151" s="10">
+        <v>2890593</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
